--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_252__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_252__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,25 +5873,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>14.9059476852417</c:v>
+                  <c:v>14.90594959259033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.78710174560547</c:v>
+                  <c:v>19.78709983825684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.48534393310547</c:v>
+                  <c:v>22.48534202575684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.28978538513184</c:v>
+                  <c:v>17.2897891998291</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>22.05607604980469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.73747253417969</c:v>
+                  <c:v>19.73747062683105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.57835960388184</c:v>
+                  <c:v>31.57836151123047</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.9149284362793</c:v>
@@ -5906,49 +5906,49 @@
                   <c:v>19.59760665893555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.91401481628418</c:v>
+                  <c:v>15.91401672363281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.99395561218262</c:v>
+                  <c:v>19.99395370483398</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>18.84172439575195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.78068923950195</c:v>
+                  <c:v>21.78068351745605</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>18.14202117919922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.91131210327148</c:v>
+                  <c:v>20.91131591796875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.30253219604492</c:v>
+                  <c:v>19.30253410339355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.32383728027344</c:v>
+                  <c:v>22.32383918762207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.62126159667969</c:v>
+                  <c:v>17.62126541137695</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>27.03250122070312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.57291793823242</c:v>
+                  <c:v>18.57291412353516</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>19.79120063781738</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.11016464233398</c:v>
+                  <c:v>29.11016654968262</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14.66805076599121</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.72332000732422</c:v>
+                  <c:v>27.72332191467285</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>15.98234844207764</c:v>
@@ -5957,10 +5957,10 @@
                   <c:v>13.88709163665771</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.50993919372559</c:v>
+                  <c:v>20.50993537902832</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.15019035339355</c:v>
+                  <c:v>17.15018844604492</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>25.74704360961914</c:v>
@@ -5969,25 +5969,25 @@
                   <c:v>16.29801559448242</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.7722053527832</c:v>
+                  <c:v>22.77220726013184</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.27017211914062</c:v>
+                  <c:v>18.27017021179199</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.14424324035645</c:v>
+                  <c:v>23.14424514770508</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>26.70793151855469</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.87632083892822</c:v>
+                  <c:v>14.87632465362549</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.95570182800293</c:v>
+                  <c:v>16.95570373535156</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.0250129699707</c:v>
+                  <c:v>17.02501106262207</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>19.08590698242188</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>19.68423080444336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18.63202667236328</c:v>
+                  <c:v>18.63202285766602</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>17.42320442199707</c:v>
@@ -6026,31 +6026,31 @@
                   <c:v>15.71923351287842</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.92295455932617</c:v>
+                  <c:v>16.9229564666748</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>21.80182838439941</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.42870330810547</c:v>
+                  <c:v>16.42870140075684</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17.58277320861816</c:v>
+                  <c:v>17.5827751159668</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.87456321716309</c:v>
+                  <c:v>19.87456130981445</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.5129222869873</c:v>
+                  <c:v>17.51292037963867</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>25.68599319458008</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22.17353820800781</c:v>
+                  <c:v>22.17354011535645</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.28163909912109</c:v>
+                  <c:v>21.28164100646973</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>17.45674705505371</c:v>
@@ -6059,19 +6059,19 @@
                   <c:v>21.52140426635742</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.15774536132812</c:v>
+                  <c:v>26.15774154663086</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26.25286102294922</c:v>
+                  <c:v>26.25285911560059</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.67981910705566</c:v>
+                  <c:v>17.67981719970703</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>18.41375160217285</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.37294578552246</c:v>
+                  <c:v>19.37294387817383</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>19.54410743713379</c:v>
@@ -6080,16 +6080,16 @@
                   <c:v>24.68844985961914</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.75536346435547</c:v>
+                  <c:v>18.7553653717041</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>23.33899116516113</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21.16239929199219</c:v>
+                  <c:v>21.16240119934082</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19.99843788146973</c:v>
+                  <c:v>19.99843597412109</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>17.38243865966797</c:v>
@@ -6101,19 +6101,19 @@
                   <c:v>22.07379913330078</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>26.36312103271484</c:v>
+                  <c:v>26.36312294006348</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>16.01984024047852</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.0490608215332</c:v>
+                  <c:v>15.04906272888184</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>16.71307754516602</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>17.88823318481445</c:v>
+                  <c:v>17.88823127746582</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>21.42398452758789</c:v>
@@ -6125,13 +6125,13 @@
                   <c:v>21.86924934387207</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.69962787628174</c:v>
+                  <c:v>15.69962978363037</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>23.22184181213379</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>18.39502334594727</c:v>
+                  <c:v>18.3950252532959</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>25.24808502197266</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>17.15418434143066</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15.65922737121582</c:v>
+                  <c:v>15.65923023223877</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>23.98917007446289</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>15.17745113372803</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>19.8463077545166</c:v>
+                  <c:v>19.84630584716797</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>15.86505317687988</c:v>
@@ -6161,10 +6161,10 @@
                   <c:v>18.80319213867188</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20.51806259155273</c:v>
+                  <c:v>20.51806449890137</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>20.03003883361816</c:v>
+                  <c:v>20.03003311157227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.9059476852417</v>
+        <v>14.90594959259033</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>19.78710174560547</v>
+        <v>19.78709983825684</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.48534393310547</v>
+        <v>22.48534202575684</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.28978538513184</v>
+        <v>17.2897891998291</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.73747253417969</v>
+        <v>19.73747062683105</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.57835960388184</v>
+        <v>31.57836151123047</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>15.91401481628418</v>
+        <v>15.91401672363281</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.99395561218262</v>
+        <v>19.99395370483398</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>21.78068923950195</v>
+        <v>21.78068351745605</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.91131210327148</v>
+        <v>20.91131591796875</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>19.30253219604492</v>
+        <v>19.30253410339355</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>22.32383728027344</v>
+        <v>22.32383918762207</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.62126159667969</v>
+        <v>17.62126541137695</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.57291793823242</v>
+        <v>18.57291412353516</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.11016464233398</v>
+        <v>29.11016654968262</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>27.72332000732422</v>
+        <v>27.72332191467285</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>20.50993919372559</v>
+        <v>20.50993537902832</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>17.15019035339355</v>
+        <v>17.15018844604492</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22.7722053527832</v>
+        <v>22.77220726013184</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>18.27017211914062</v>
+        <v>18.27017021179199</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>23.14424324035645</v>
+        <v>23.14424514770508</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>14.87632083892822</v>
+        <v>14.87632465362549</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>16.95570182800293</v>
+        <v>16.95570373535156</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>17.0250129699707</v>
+        <v>17.02501106262207</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>18.63202667236328</v>
+        <v>18.63202285766602</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.92295455932617</v>
+        <v>16.9229564666748</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>16.42870330810547</v>
+        <v>16.42870140075684</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>17.58277320861816</v>
+        <v>17.5827751159668</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>19.87456321716309</v>
+        <v>19.87456130981445</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>17.5129222869873</v>
+        <v>17.51292037963867</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>22.17353820800781</v>
+        <v>22.17354011535645</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>21.28163909912109</v>
+        <v>21.28164100646973</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>26.15774536132812</v>
+        <v>26.15774154663086</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>26.25286102294922</v>
+        <v>26.25285911560059</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>17.67981910705566</v>
+        <v>17.67981719970703</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>19.37294578552246</v>
+        <v>19.37294387817383</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>18.75536346435547</v>
+        <v>18.7553653717041</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>21.16239929199219</v>
+        <v>21.16240119934082</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>19.99843788146973</v>
+        <v>19.99843597412109</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>26.36312103271484</v>
+        <v>26.36312294006348</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>15.0490608215332</v>
+        <v>15.04906272888184</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>17.88823318481445</v>
+        <v>17.88823127746582</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>15.69962787628174</v>
+        <v>15.69962978363037</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>18.39502334594727</v>
+        <v>18.3950252532959</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>15.65922737121582</v>
+        <v>15.65923023223877</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>19.8463077545166</v>
+        <v>19.84630584716797</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>20.51806259155273</v>
+        <v>20.51806449890137</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>20.03003883361816</v>
+        <v>20.03003311157227</v>
       </c>
     </row>
     <row r="100" spans="1:6">
